--- a/LisaLab timetable assignment.xlsx
+++ b/LisaLab timetable assignment.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>12:00p.m</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Monday</t>
   </si>
@@ -34,12 +31,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>4:00p.m</t>
-  </si>
-  <si>
-    <t>5:00p.m</t>
-  </si>
-  <si>
     <t>HTML&amp;CSS</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Graphic designs</t>
-  </si>
-  <si>
     <t>Navigating your journey</t>
   </si>
   <si>
@@ -109,22 +97,35 @@
     <t xml:space="preserve">D </t>
   </si>
   <si>
-    <t>9:00a.m</t>
-  </si>
-  <si>
-    <t>1:00p.m</t>
-  </si>
-  <si>
-    <t>8:00p.m</t>
+    <t xml:space="preserve"> 9:00a.m 12:00p.m</t>
+  </si>
+  <si>
+    <t>1:00p.m 4:00p.m</t>
+  </si>
+  <si>
+    <t>5:00p.m 8:00p.m</t>
+  </si>
+  <si>
+    <t>LISA LAB</t>
+  </si>
+  <si>
+    <t>Graphic     design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,35 +148,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,191 +501,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="19">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>